--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15083</v>
+        <v>77980</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Guilherme Alves</t>
+          <t>Luiz Otávio Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>9661.74</v>
+        <v>11691.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48722</v>
+        <v>40290</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Davi Lucca Gonçalves</t>
+          <t>Laura da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>11770.81</v>
+        <v>7880.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76620</v>
+        <v>88164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miguel Correia</t>
+          <t>Marcelo Melo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>12257.82</v>
+        <v>8945.290000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86621</v>
+        <v>37544</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Barros</t>
+          <t>Emilly Porto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>4206.35</v>
+        <v>4733.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42780</v>
+        <v>32056</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marina Almeida</t>
+          <t>Caroline da Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>2520.38</v>
+        <v>6455.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74913</v>
+        <v>9237</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diego Costela</t>
+          <t>Caroline Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>4316.18</v>
+        <v>10587.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19836</v>
+        <v>61198</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lívia Lima</t>
+          <t>Dr. Luiz Otávio Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>8968.200000000001</v>
+        <v>8533.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69365</v>
+        <v>54101</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Manuela Monteiro</t>
+          <t>Milena Aragão</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>3070.57</v>
+        <v>5837.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35200</v>
+        <v>35463</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cauã Dias</t>
+          <t>Lorenzo Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>4043.12</v>
+        <v>5676.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80027</v>
+        <v>90759</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Yago Lima</t>
+          <t>Erick Dias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>4752.44</v>
+        <v>10749.63</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77980</v>
+        <v>66480</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Otávio Monteiro</t>
+          <t>Srta. Ana Julia Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>11691.32</v>
+        <v>9726.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40290</v>
+        <v>41103</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laura da Paz</t>
+          <t>João Guilherme Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>7880.29</v>
+        <v>4024.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88164</v>
+        <v>41768</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcelo Melo</t>
+          <t>Luiz Felipe Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>8945.290000000001</v>
+        <v>12081.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37544</v>
+        <v>90781</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emilly Porto</t>
+          <t>Leonardo Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>4733.68</v>
+        <v>5426.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32056</v>
+        <v>9816</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Caroline da Cunha</t>
+          <t>Larissa Ribeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>6455.46</v>
+        <v>8107.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9237</v>
+        <v>91914</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caroline Ribeiro</t>
+          <t>Catarina da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>10587.82</v>
+        <v>4861.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61198</v>
+        <v>13208</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Rocha</t>
+          <t>Lorenzo Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>8533.99</v>
+        <v>7736.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54101</v>
+        <v>89250</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Milena Aragão</t>
+          <t>Ana Julia Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>5837.74</v>
+        <v>6887.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35463</v>
+        <v>67678</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorenzo Pinto</t>
+          <t>Gustavo Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>5676.32</v>
+        <v>10601.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90759</v>
+        <v>73066</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Erick Dias</t>
+          <t>Sra. Ana Clara Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>10749.63</v>
+        <v>6732.21</v>
       </c>
     </row>
   </sheetData>
